--- a/raw/1956election.xlsx
+++ b/raw/1956election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53844181-A2D9-3A47-9C2A-8F4E9BB1AB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE97F42-808E-8746-BEDD-D9134C46A78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="16300" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="1832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5770" uniqueCount="1832">
   <si>
     <t>State</t>
   </si>
@@ -5990,7 +5990,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6297,8 +6297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1083"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B156" zoomScale="206" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10107,8 +10107,8 @@
       <c r="C168" t="s">
         <v>9</v>
       </c>
-      <c r="D168" t="s">
-        <v>10</v>
+      <c r="D168">
+        <v>7</v>
       </c>
       <c r="E168" t="s">
         <v>1480</v>
@@ -10130,8 +10130,8 @@
       <c r="C169" t="s">
         <v>9</v>
       </c>
-      <c r="D169" t="s">
-        <v>10</v>
+      <c r="D169">
+        <v>7</v>
       </c>
       <c r="E169" t="s">
         <v>1481</v>
